--- a/PomodoroTimer/src/main/resources/image/tomato.xlsx
+++ b/PomodoroTimer/src/main/resources/image/tomato.xlsx
@@ -66,6 +66,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFB5E61D"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -103,7 +108,7 @@
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="bg1"/>
+          <a:srgbClr val="B5E61D"/>
         </a:solidFill>
         <a:ln w="88900">
           <a:solidFill>
@@ -235,6 +240,199 @@
       <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="8" name="直線コネクタ 7"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2331169" y="866775"/>
+            <a:ext cx="0" cy="255600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="88900" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="円/楕円 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="2343150"/>
+          <a:ext cx="1876425" cy="1257300"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln w="88900">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>54693</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>450131</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="10" name="グループ化 9"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="2112093" y="2524125"/>
+          <a:ext cx="395438" cy="257175"/>
+          <a:chOff x="2133600" y="866775"/>
+          <a:chExt cx="395438" cy="257175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="直線コネクタ 10"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="2133600" y="866775"/>
+            <a:ext cx="190500" cy="257175"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="88900" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="12" name="直線コネクタ 11"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipH="1">
+            <a:off x="2338238" y="866775"/>
+            <a:ext cx="190800" cy="255600"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="88900" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="13" name="直線コネクタ 12"/>
           <xdr:cNvCxnSpPr/>
         </xdr:nvCxnSpPr>
         <xdr:spPr>
